--- a/Taakstructuur.xlsx
+++ b/Taakstructuur.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26216"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26228"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="265" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5EE1DD26-6C60-4753-ACC1-FB69B79BB3B9}"/>
+  <xr:revisionPtr revIDLastSave="565" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{922B0AB1-E34A-4244-9E63-C3884B23DBE8}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="134">
   <si>
     <t>Code</t>
   </si>
@@ -39,7 +39,10 @@
     <t>Status</t>
   </si>
   <si>
-    <t>Opdracht verkennen</t>
+    <t>OPDRACHT VERKENNEN</t>
+  </si>
+  <si>
+    <t>niet OK</t>
   </si>
   <si>
     <t>Brainstormen</t>
@@ -51,31 +54,31 @@
     <t>Taakstructuur opstellen</t>
   </si>
   <si>
+    <t>Verantwoordelijkheidsstructuur opstellen</t>
+  </si>
+  <si>
+    <t>Teamkalender opstellen</t>
+  </si>
+  <si>
+    <t>Gantt chart opstellen</t>
+  </si>
+  <si>
+    <t>1ste vergaderverslag</t>
+  </si>
+  <si>
+    <t>Kostenraming opstellen</t>
+  </si>
+  <si>
     <t>bezig</t>
   </si>
   <si>
-    <t>Verantwoordelijkheidsstructuur opstellen</t>
-  </si>
-  <si>
-    <t>Teamkalender opstellen</t>
-  </si>
-  <si>
-    <t>Gantt chart opstellen</t>
-  </si>
-  <si>
-    <t>1ste vergaderverslag</t>
-  </si>
-  <si>
-    <t>Kostenraming opstellen</t>
-  </si>
-  <si>
     <t>Onderzoeken materialen</t>
   </si>
   <si>
     <t>Materiaalselectie</t>
   </si>
   <si>
-    <t>CAD model</t>
+    <t>CAD MODEL</t>
   </si>
   <si>
     <t>3D modellen</t>
@@ -87,9 +90,6 @@
     <t>jerrycan</t>
   </si>
   <si>
-    <t>niet OK</t>
-  </si>
-  <si>
     <t>2.1.2</t>
   </si>
   <si>
@@ -141,41 +141,332 @@
     <t>Stuklijst</t>
   </si>
   <si>
-    <t>Rapportering/verslag</t>
+    <t>BOUW</t>
+  </si>
+  <si>
+    <t>coderen microcontroller</t>
+  </si>
+  <si>
+    <t>3.1.1</t>
+  </si>
+  <si>
+    <t>brandlocalisatie</t>
+  </si>
+  <si>
+    <t>3.1.2</t>
+  </si>
+  <si>
+    <t>beweging armen</t>
+  </si>
+  <si>
+    <t>3.1.3</t>
+  </si>
+  <si>
+    <t>relatie brandlocalisatie - beweging van armen</t>
+  </si>
+  <si>
+    <t>3.1.4</t>
+  </si>
+  <si>
+    <t>water spuiten</t>
+  </si>
+  <si>
+    <t>3.1.5</t>
+  </si>
+  <si>
+    <t>relatie juist gericht - water spuiten</t>
+  </si>
+  <si>
+    <t>communicatie met PC</t>
+  </si>
+  <si>
+    <t>3.2.1</t>
+  </si>
+  <si>
+    <t>automatische werking</t>
+  </si>
+  <si>
+    <t>3.2.2</t>
+  </si>
+  <si>
+    <t>manuele override</t>
+  </si>
+  <si>
+    <t>testen van onderdelen en mogelijke aanpassingen</t>
+  </si>
+  <si>
+    <t>3.3.1</t>
+  </si>
+  <si>
+    <t>detectie brand</t>
+  </si>
+  <si>
+    <t>3.3.2</t>
+  </si>
+  <si>
+    <t>locatievaststelling brand</t>
+  </si>
+  <si>
+    <t>3.3.3</t>
+  </si>
+  <si>
+    <t>beweging arm 1 richting brand</t>
+  </si>
+  <si>
+    <t>3.3.4</t>
+  </si>
+  <si>
+    <t>beweging arm 2 afstand brand</t>
+  </si>
+  <si>
+    <t>3.3.5</t>
+  </si>
+  <si>
+    <t>spuitdruk</t>
+  </si>
+  <si>
+    <t>3.3.6</t>
+  </si>
+  <si>
+    <t>stoppen wanneer cilinders gevuld</t>
+  </si>
+  <si>
+    <t>in elkaar steken</t>
+  </si>
+  <si>
+    <t>testen geheel</t>
+  </si>
+  <si>
+    <t>aanpassingen maken</t>
+  </si>
+  <si>
+    <t>RAPPORTERING/VERSLAG</t>
   </si>
   <si>
     <t>feedback P&amp;O 1 lezen</t>
   </si>
   <si>
-    <t>inleiding met o.a. probleemstelling</t>
-  </si>
-  <si>
-    <t>ontwerpproces</t>
-  </si>
-  <si>
-    <t>planning</t>
-  </si>
-  <si>
-    <t>resultaten (met experimenten en berekeningen)</t>
-  </si>
-  <si>
-    <t>elektronisch circuit</t>
-  </si>
-  <si>
-    <t>mogelijke verbeteringen aan ontwerp</t>
-  </si>
-  <si>
-    <t>financieel rapport</t>
+    <t xml:space="preserve">Inleiding </t>
+  </si>
+  <si>
+    <t>Probleem Schetsen</t>
+  </si>
+  <si>
+    <t>4.3.1</t>
+  </si>
+  <si>
+    <t>Huidige Problemen bij Sprinklers</t>
+  </si>
+  <si>
+    <t>4.3.2</t>
+  </si>
+  <si>
+    <t>Blusplatform</t>
+  </si>
+  <si>
+    <t>4.3.3</t>
+  </si>
+  <si>
+    <t>Voordelen van het Blusplatform</t>
+  </si>
+  <si>
+    <t>Ontwerp en Materialen</t>
+  </si>
+  <si>
+    <t>4.4.1</t>
+  </si>
+  <si>
+    <t>Ontwerpproces</t>
+  </si>
+  <si>
+    <t>4.4.2</t>
+  </si>
+  <si>
+    <t>4.4.3</t>
+  </si>
+  <si>
+    <t>Solid Edge</t>
+  </si>
+  <si>
+    <t>Elektronisch Circuit</t>
+  </si>
+  <si>
+    <t>4.5.1</t>
+  </si>
+  <si>
+    <t>Motoren</t>
+  </si>
+  <si>
+    <t>4.5.2</t>
+  </si>
+  <si>
+    <t>Sensoren en Webcams</t>
+  </si>
+  <si>
+    <t>4.5.3</t>
+  </si>
+  <si>
+    <t>Moederbord</t>
+  </si>
+  <si>
+    <t>4.5.4</t>
+  </si>
+  <si>
+    <t>Bekabeling</t>
+  </si>
+  <si>
+    <t>Programmeercode</t>
+  </si>
+  <si>
+    <t>4.6.1</t>
+  </si>
+  <si>
+    <t>LabView</t>
+  </si>
+  <si>
+    <t>4.6.2</t>
+  </si>
+  <si>
+    <t>Python</t>
+  </si>
+  <si>
+    <t>4.6.3</t>
+  </si>
+  <si>
+    <t>Raspberry PI</t>
+  </si>
+  <si>
+    <t>Resultaten</t>
+  </si>
+  <si>
+    <t>4.7.1</t>
+  </si>
+  <si>
+    <t>Prototype</t>
+  </si>
+  <si>
+    <t>4.7.2</t>
+  </si>
+  <si>
+    <t>Resultaten Demo</t>
+  </si>
+  <si>
+    <t>Financieel rapport</t>
+  </si>
+  <si>
+    <t>Mogelijke verbeteringen</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>4.10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Besluit</t>
   </si>
   <si>
     <t>bibliografie</t>
+  </si>
+  <si>
+    <t>POWERPOINT LATEX</t>
+  </si>
+  <si>
+    <t>5.3.1</t>
+  </si>
+  <si>
+    <t>5.3.2</t>
+  </si>
+  <si>
+    <t>5.3.3</t>
+  </si>
+  <si>
+    <t>5.4.1</t>
+  </si>
+  <si>
+    <t>5.4.2</t>
+  </si>
+  <si>
+    <t>5.4.3</t>
+  </si>
+  <si>
+    <t>5.5.1</t>
+  </si>
+  <si>
+    <t>5.5.2</t>
+  </si>
+  <si>
+    <t>5.5.3</t>
+  </si>
+  <si>
+    <t>5.5.4</t>
+  </si>
+  <si>
+    <t>5.6.1</t>
+  </si>
+  <si>
+    <t>5.6.2</t>
+  </si>
+  <si>
+    <t>5.6.3</t>
+  </si>
+  <si>
+    <t>5.7.1</t>
+  </si>
+  <si>
+    <t>5.7.2</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>5.10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>LABVIEW</t>
+  </si>
+  <si>
+    <t>Sensoren</t>
+  </si>
+  <si>
+    <t>Webcam</t>
+  </si>
+  <si>
+    <t>Overige code</t>
+  </si>
+  <si>
+    <t>Handmatige override</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -189,6 +480,21 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -198,7 +504,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -215,11 +521,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -235,8 +550,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -552,10 +871,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:E37"/>
+  <dimension ref="B2:E110"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:C110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -583,16 +902,19 @@
       <c r="C3" t="s">
         <v>3</v>
       </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="4" spans="2:5">
       <c r="B4" s="1">
         <v>1.1000000000000001</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="2:5">
@@ -600,10 +922,10 @@
         <v>1.2</v>
       </c>
       <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
         <v>6</v>
-      </c>
-      <c r="E5" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="6" spans="2:5">
@@ -614,7 +936,7 @@
         <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="2:5">
@@ -625,7 +947,7 @@
         <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="2:5">
@@ -636,7 +958,7 @@
         <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="2:5">
@@ -647,7 +969,7 @@
         <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="2:5">
@@ -658,7 +980,7 @@
         <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="2:5">
@@ -666,10 +988,10 @@
         <v>1.8</v>
       </c>
       <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" t="s">
         <v>13</v>
-      </c>
-      <c r="E11" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="12" spans="2:5">
@@ -677,10 +999,10 @@
         <v>1.9</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="2:5">
@@ -694,7 +1016,10 @@
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="E14" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="2:5">
@@ -702,18 +1027,21 @@
         <v>2.1</v>
       </c>
       <c r="C15" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="E15" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="2:5">
       <c r="B16" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E16" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="2:5">
@@ -724,7 +1052,7 @@
         <v>21</v>
       </c>
       <c r="E17" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="2:5">
@@ -735,7 +1063,7 @@
         <v>23</v>
       </c>
       <c r="E18" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="2:5">
@@ -746,7 +1074,7 @@
         <v>25</v>
       </c>
       <c r="E19" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="2:5">
@@ -757,7 +1085,7 @@
         <v>27</v>
       </c>
       <c r="E20" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="2:5">
@@ -768,7 +1096,7 @@
         <v>29</v>
       </c>
       <c r="E21" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="2:5">
@@ -779,7 +1107,7 @@
         <v>31</v>
       </c>
       <c r="E22" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="2:5">
@@ -790,7 +1118,7 @@
         <v>33</v>
       </c>
       <c r="E23" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="2:5">
@@ -801,7 +1129,7 @@
         <v>34</v>
       </c>
       <c r="E24" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="2:5">
@@ -812,7 +1140,7 @@
         <v>35</v>
       </c>
       <c r="E25" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="2:5">
@@ -823,21 +1151,22 @@
         <v>36</v>
       </c>
       <c r="E26" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="2:5">
-      <c r="B27" s="7"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
+      <c r="B27" s="1"/>
     </row>
     <row r="28" spans="2:5">
-      <c r="B28" s="2">
+      <c r="B28" s="8">
         <v>3</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="7" t="s">
         <v>37</v>
+      </c>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="2:5">
@@ -848,95 +1177,858 @@
         <v>38</v>
       </c>
       <c r="E29" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="2:5">
-      <c r="B30" s="1">
-        <v>3.2</v>
+      <c r="B30" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="C30" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E30" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="2:5">
-      <c r="B31" s="1">
-        <v>3.3</v>
+      <c r="B31" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="C31" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E31" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="2:5">
-      <c r="B32" s="1">
-        <v>3.4</v>
+      <c r="B32" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="C32" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E32" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="2:5">
-      <c r="B33" s="1">
-        <v>3.5</v>
+      <c r="B33" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="C33" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E33" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="2:5">
-      <c r="B34" s="1">
-        <v>3.6</v>
+      <c r="B34" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="C34" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E34" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="2:5">
       <c r="B35" s="1">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="C35" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E35" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="2:5">
-      <c r="B36" s="1">
-        <v>3.8</v>
+      <c r="B36" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="C36" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="E36" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="2:5">
-      <c r="B37" s="1">
-        <v>3.9</v>
+      <c r="B37" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="C37" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E37" t="s">
-        <v>19</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5">
+      <c r="B38" s="1">
+        <v>3.3</v>
+      </c>
+      <c r="C38" t="s">
+        <v>54</v>
+      </c>
+      <c r="E38" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5">
+      <c r="B39" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C39" t="s">
+        <v>56</v>
+      </c>
+      <c r="E39" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5">
+      <c r="B40" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C40" t="s">
+        <v>58</v>
+      </c>
+      <c r="E40" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5">
+      <c r="B41" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C41" t="s">
+        <v>60</v>
+      </c>
+      <c r="E41" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5">
+      <c r="B42" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C42" t="s">
+        <v>62</v>
+      </c>
+      <c r="E42" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5">
+      <c r="B43" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C43" t="s">
+        <v>64</v>
+      </c>
+      <c r="E43" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5">
+      <c r="B44" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C44" t="s">
+        <v>66</v>
+      </c>
+      <c r="E44" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5">
+      <c r="B45" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="C45" t="s">
+        <v>67</v>
+      </c>
+      <c r="E45" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5">
+      <c r="B46" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="C46" t="s">
+        <v>68</v>
+      </c>
+      <c r="E46" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5">
+      <c r="B47" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="C47" t="s">
+        <v>69</v>
+      </c>
+      <c r="E47" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5">
+      <c r="B48" s="1"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+    </row>
+    <row r="49" spans="2:5">
+      <c r="B49" s="8">
+        <v>4</v>
+      </c>
+      <c r="C49" t="s">
+        <v>70</v>
+      </c>
+      <c r="E49" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5">
+      <c r="B50" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C50" t="s">
+        <v>71</v>
+      </c>
+      <c r="E50" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5">
+      <c r="B51" s="1"/>
+    </row>
+    <row r="52" spans="2:5">
+      <c r="B52" s="1">
+        <v>4.2</v>
+      </c>
+      <c r="C52" t="s">
+        <v>72</v>
+      </c>
+      <c r="E52" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5">
+      <c r="B53" s="1">
+        <v>4.3</v>
+      </c>
+      <c r="C53" t="s">
+        <v>73</v>
+      </c>
+      <c r="E53" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5">
+      <c r="B54" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C54" t="s">
+        <v>75</v>
+      </c>
+      <c r="E54" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5">
+      <c r="B55" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C55" t="s">
+        <v>77</v>
+      </c>
+      <c r="E55" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5">
+      <c r="B56" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C56" t="s">
+        <v>79</v>
+      </c>
+      <c r="E56" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5">
+      <c r="B57" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="C57" t="s">
+        <v>80</v>
+      </c>
+      <c r="E57" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5">
+      <c r="B58" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C58" t="s">
+        <v>82</v>
+      </c>
+      <c r="E58" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5">
+      <c r="B59" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C59" t="s">
+        <v>15</v>
+      </c>
+      <c r="E59" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5">
+      <c r="B60" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C60" t="s">
+        <v>85</v>
+      </c>
+      <c r="E60" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5">
+      <c r="B61" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="C61" t="s">
+        <v>86</v>
+      </c>
+      <c r="E61" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5">
+      <c r="B62" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62" t="s">
+        <v>88</v>
+      </c>
+      <c r="E62" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5">
+      <c r="B63" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C63" t="s">
+        <v>90</v>
+      </c>
+      <c r="E63" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5">
+      <c r="B64" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C64" t="s">
+        <v>92</v>
+      </c>
+      <c r="E64" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5">
+      <c r="B65" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C65" t="s">
+        <v>94</v>
+      </c>
+      <c r="E65" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5">
+      <c r="B66" s="1">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C66" t="s">
+        <v>95</v>
+      </c>
+      <c r="E66" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5">
+      <c r="B67" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C67" t="s">
+        <v>97</v>
+      </c>
+      <c r="E67" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5">
+      <c r="B68" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C68" t="s">
+        <v>99</v>
+      </c>
+      <c r="E68" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5">
+      <c r="B69" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C69" t="s">
+        <v>101</v>
+      </c>
+      <c r="E69" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5">
+      <c r="B70" s="1">
+        <v>4.7</v>
+      </c>
+      <c r="C70" t="s">
+        <v>102</v>
+      </c>
+      <c r="E70" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5">
+      <c r="B71" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C71" t="s">
+        <v>104</v>
+      </c>
+      <c r="E71" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5">
+      <c r="B72" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C72" t="s">
+        <v>106</v>
+      </c>
+      <c r="E72" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5">
+      <c r="B73" s="1">
+        <v>4.8</v>
+      </c>
+      <c r="C73" t="s">
+        <v>107</v>
+      </c>
+      <c r="E73" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5">
+      <c r="B74" s="1">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="C74" t="s">
+        <v>108</v>
+      </c>
+      <c r="E74" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5">
+      <c r="B75" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C75" t="s">
+        <v>110</v>
+      </c>
+      <c r="E75" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5">
+      <c r="B76" s="1">
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="C76" t="s">
+        <v>111</v>
+      </c>
+      <c r="E76" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5">
+      <c r="B78" s="7"/>
+      <c r="C78" s="7"/>
+      <c r="D78" s="7"/>
+      <c r="E78" s="7"/>
+    </row>
+    <row r="79" spans="2:5">
+      <c r="B79" s="2">
+        <v>5</v>
+      </c>
+      <c r="C79" t="s">
+        <v>112</v>
+      </c>
+      <c r="E79" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5">
+      <c r="B80" s="1">
+        <v>5.2</v>
+      </c>
+      <c r="C80" t="s">
+        <v>72</v>
+      </c>
+      <c r="E80" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5">
+      <c r="B81" s="1">
+        <v>5.3</v>
+      </c>
+      <c r="C81" t="s">
+        <v>73</v>
+      </c>
+      <c r="E81" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5">
+      <c r="B82" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C82" t="s">
+        <v>75</v>
+      </c>
+      <c r="E82" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5">
+      <c r="B83" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C83" t="s">
+        <v>77</v>
+      </c>
+      <c r="E83" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5">
+      <c r="B84" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C84" t="s">
+        <v>79</v>
+      </c>
+      <c r="E84" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="2:5">
+      <c r="B85" s="1">
+        <v>5.4</v>
+      </c>
+      <c r="C85" t="s">
+        <v>80</v>
+      </c>
+      <c r="E85" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="2:5">
+      <c r="B86" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C86" t="s">
+        <v>82</v>
+      </c>
+      <c r="E86" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="2:5">
+      <c r="B87" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C87" t="s">
+        <v>15</v>
+      </c>
+      <c r="E87" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="2:5">
+      <c r="B88" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C88" t="s">
+        <v>85</v>
+      </c>
+      <c r="E88" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="2:5">
+      <c r="B89" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="C89" t="s">
+        <v>86</v>
+      </c>
+      <c r="E89" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="2:5">
+      <c r="B90" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C90" t="s">
+        <v>88</v>
+      </c>
+      <c r="E90" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="2:5">
+      <c r="B91" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C91" t="s">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="2:5">
+      <c r="B92" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C92" t="s">
+        <v>92</v>
+      </c>
+      <c r="E92" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="2:5">
+      <c r="B93" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C93" t="s">
+        <v>94</v>
+      </c>
+      <c r="E93" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="2:5">
+      <c r="B94" s="1">
+        <v>5.6</v>
+      </c>
+      <c r="C94" t="s">
+        <v>95</v>
+      </c>
+      <c r="E94" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="2:5">
+      <c r="B95" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C95" t="s">
+        <v>97</v>
+      </c>
+      <c r="E95" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="2:5">
+      <c r="B96" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C96" t="s">
+        <v>99</v>
+      </c>
+      <c r="E96" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" spans="2:5">
+      <c r="B97" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C97" t="s">
+        <v>101</v>
+      </c>
+      <c r="E97" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" spans="2:5">
+      <c r="B98" s="1">
+        <v>5.7</v>
+      </c>
+      <c r="C98" t="s">
+        <v>102</v>
+      </c>
+      <c r="E98" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="2:5">
+      <c r="B99" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C99" t="s">
+        <v>104</v>
+      </c>
+      <c r="E99" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100" spans="2:5">
+      <c r="B100" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C100" t="s">
+        <v>106</v>
+      </c>
+      <c r="E100" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="2:5">
+      <c r="B101" s="1">
+        <v>5.8</v>
+      </c>
+      <c r="C101" t="s">
+        <v>107</v>
+      </c>
+      <c r="E101" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="2:5">
+      <c r="B102" s="1">
+        <v>5.9</v>
+      </c>
+      <c r="C102" t="s">
+        <v>108</v>
+      </c>
+      <c r="E102" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103" spans="2:5">
+      <c r="B103" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="C103" t="s">
+        <v>110</v>
+      </c>
+      <c r="E103" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104" spans="2:5">
+      <c r="B104" s="1">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="C104" t="s">
+        <v>111</v>
+      </c>
+      <c r="E104" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106" spans="2:5">
+      <c r="B106" s="2">
+        <v>6</v>
+      </c>
+      <c r="C106" t="s">
+        <v>129</v>
+      </c>
+      <c r="E106" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107" spans="2:5">
+      <c r="B107" s="1">
+        <v>6.1</v>
+      </c>
+      <c r="C107" t="s">
+        <v>130</v>
+      </c>
+      <c r="E107" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108" spans="2:5">
+      <c r="B108" s="1">
+        <v>6.2</v>
+      </c>
+      <c r="C108" t="s">
+        <v>131</v>
+      </c>
+      <c r="E108" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109" spans="2:5">
+      <c r="B109" s="1">
+        <v>6.3</v>
+      </c>
+      <c r="C109" t="s">
+        <v>132</v>
+      </c>
+      <c r="E109" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110" spans="2:5">
+      <c r="B110" s="1">
+        <v>6.4</v>
+      </c>
+      <c r="C110" t="s">
+        <v>133</v>
+      </c>
+      <c r="E110" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Taakstructuur.xlsx
+++ b/Taakstructuur.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ab56a76f82895e8b/Documents/2022-2023 KULAK B1/2022-2023 Probleemoplossen en ontwerpen 2/2022_2023_Probleemoplossen_en_Ontwerpen_2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emile\OneDrive\Documenten\P&amp;O 2\GIT\2022_2023_Probleemoplossen_en_Ontwerpen_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="714" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0052EFEA-1417-42A6-AEB7-9451265EADCC}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE25EC62-5AFD-4095-B50C-647A7B56A682}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="11976" yWindow="1944" windowWidth="10656" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -629,7 +629,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -649,18 +649,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -676,7 +672,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -977,8 +973,8 @@
   </sheetPr>
   <dimension ref="B2:E105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1140,7 +1136,7 @@
         <v>170</v>
       </c>
       <c r="E16" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
@@ -1151,7 +1147,7 @@
         <v>93</v>
       </c>
       <c r="E17" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
@@ -1162,7 +1158,7 @@
         <v>169</v>
       </c>
       <c r="E18" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
@@ -1173,7 +1169,7 @@
         <v>60</v>
       </c>
       <c r="E19" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
@@ -1184,7 +1180,7 @@
         <v>168</v>
       </c>
       <c r="E20" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
@@ -1195,7 +1191,7 @@
         <v>167</v>
       </c>
       <c r="E21" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.3">
@@ -1206,7 +1202,7 @@
         <v>166</v>
       </c>
       <c r="E22" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.3">
@@ -1217,7 +1213,7 @@
         <v>165</v>
       </c>
       <c r="E23" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.3">
@@ -1228,7 +1224,7 @@
         <v>164</v>
       </c>
       <c r="E24" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.3">
@@ -1239,7 +1235,7 @@
         <v>163</v>
       </c>
       <c r="E25" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.3">
@@ -1298,7 +1294,7 @@
         <v>162</v>
       </c>
       <c r="E31" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.3">
@@ -1474,7 +1470,7 @@
         <v>146</v>
       </c>
       <c r="E47" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.3">
@@ -1500,20 +1496,17 @@
       </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B50" s="11"/>
-      <c r="C50" s="9"/>
-      <c r="D50" s="9"/>
-      <c r="E50" s="9"/>
+      <c r="B50" s="1"/>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B51" s="12">
-        <v>4</v>
-      </c>
-      <c r="C51" s="13" t="s">
+      <c r="B51" s="10">
+        <v>4</v>
+      </c>
+      <c r="C51" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D51" s="13"/>
-      <c r="E51" s="13" t="s">
+      <c r="D51" s="11"/>
+      <c r="E51" s="11" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1804,10 +1797,10 @@
       </c>
     </row>
     <row r="78" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B78" s="10"/>
-      <c r="C78" s="10"/>
-      <c r="D78" s="10"/>
-      <c r="E78" s="10"/>
+      <c r="B78" s="9"/>
+      <c r="C78" s="9"/>
+      <c r="D78" s="9"/>
+      <c r="E78" s="9"/>
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B79" s="2">
@@ -2024,21 +2017,15 @@
     <row r="99" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B99" s="1"/>
     </row>
-    <row r="100" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B100" s="9"/>
-      <c r="C100" s="9"/>
-      <c r="D100" s="9"/>
-      <c r="E100" s="9"/>
-    </row>
     <row r="101" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B101" s="12">
+      <c r="B101" s="10">
         <v>6</v>
       </c>
-      <c r="C101" s="13" t="s">
+      <c r="C101" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="D101" s="13"/>
-      <c r="E101" s="13" t="s">
+      <c r="D101" s="11"/>
+      <c r="E101" s="11" t="s">
         <v>4</v>
       </c>
     </row>
